--- a/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/ApplicationSpecification.xlsx
+++ b/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/ApplicationSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_GitProject\99_Learning\01_LinuxLearning\00_Projects\01_MiniProject_ChatApplication\01_Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rintan/Code/TuanCode/LinuxLearning/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1CAE4A-DC8F-4FD1-B3F8-1764502E316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4946C131-4133-E242-8317-DE1E29CC90B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Req" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -619,6 +618,15 @@
       </rPr>
       <t>: Đóng tất cả các kết nối hiện tại và thoát chương trình.</t>
     </r>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Unclear Requirement</t>
   </si>
 </sst>
 </file>
@@ -715,22 +723,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,7 +753,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,25 +1048,25 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="118.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="64.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="118.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="64.5" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>_xlfn.CONCAT("CA-RS", IF($B2="Functional Requirements","-FR-","-NFR-"),ROW() - 1)</f>
         <v>CA-RS-FR-1</v>
@@ -1096,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>2</v>
@@ -1105,7 +1113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A52" si="0">_xlfn.CONCAT("CA-RS", IF($B3="Functional Requirements","-FR-","-NFR-"),ROW() - 1)</f>
         <v>CA-RS-FR-2</v>
@@ -1120,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>9</v>
@@ -1129,7 +1137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-3</v>
@@ -1144,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
@@ -1153,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-4</v>
@@ -1168,14 +1176,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-5</v>
@@ -1190,14 +1198,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-6</v>
@@ -1212,14 +1220,14 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-7</v>
@@ -1234,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -1243,7 +1251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-8</v>
@@ -1258,14 +1266,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-9</v>
@@ -1280,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
@@ -1289,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-10</v>
@@ -1304,14 +1312,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-11</v>
@@ -1326,14 +1334,14 @@
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-12</v>
@@ -1348,14 +1356,14 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-13</v>
@@ -1370,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>5</v>
@@ -1379,7 +1387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-14</v>
@@ -1394,14 +1402,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-15</v>
@@ -1416,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>6</v>
@@ -1425,7 +1433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-16</v>
@@ -1440,14 +1448,14 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-17</v>
@@ -1462,14 +1470,14 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-18</v>
@@ -1484,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>7</v>
@@ -1493,7 +1501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-19</v>
@@ -1508,14 +1516,14 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-20</v>
@@ -1530,14 +1538,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-21</v>
@@ -1552,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>16</v>
@@ -1561,7 +1569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-22</v>
@@ -1576,14 +1584,14 @@
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-23</v>
@@ -1598,14 +1606,14 @@
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-24</v>
@@ -1620,14 +1628,14 @@
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-25</v>
@@ -1642,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>8</v>
@@ -1651,7 +1659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-26</v>
@@ -1666,14 +1674,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-27</v>
@@ -1688,14 +1696,14 @@
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-28</v>
@@ -1719,7 +1727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-29</v>
@@ -1741,7 +1749,7 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-30</v>
@@ -1763,7 +1771,7 @@
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-31</v>
@@ -1787,7 +1795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-32</v>
@@ -1809,7 +1817,7 @@
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-33</v>
@@ -1831,7 +1839,7 @@
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-34</v>
@@ -1855,7 +1863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-35</v>
@@ -1879,7 +1887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-36</v>
@@ -1901,7 +1909,7 @@
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-37</v>
@@ -1923,7 +1931,7 @@
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-38</v>
@@ -1945,7 +1953,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-39</v>
@@ -1967,7 +1975,7 @@
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-40</v>
@@ -1991,7 +1999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-41</v>
@@ -2013,7 +2021,7 @@
       </c>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-42</v>
@@ -2035,7 +2043,7 @@
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-43</v>
@@ -2059,7 +2067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-44</v>
@@ -2081,7 +2089,7 @@
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-45</v>
@@ -2103,7 +2111,7 @@
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-46</v>
@@ -2125,7 +2133,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-47</v>
@@ -2149,7 +2157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-48</v>
@@ -2171,7 +2179,7 @@
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-49</v>
@@ -2193,7 +2201,7 @@
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-50</v>
@@ -2215,7 +2223,7 @@
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-51</v>
@@ -2250,7 +2258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/ApplicationSpecification.xlsx
+++ b/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/ApplicationSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rintan/Code/TuanCode/LinuxLearning/02_RemoteServer/00_Projects/01_MiniProject_ChatApplication/01_Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_GitProject\99_Learning\01_LinuxLearning\00_Projects\01_MiniProject_ChatApplication\01_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4946C131-4133-E242-8317-DE1E29CC90B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F8425A-C88A-42F6-AFA3-958394EF39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Req" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -206,9 +206,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Not implemented</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -624,9 +621,6 @@
   </si>
   <si>
     <t>Released</t>
-  </si>
-  <si>
-    <t>Unclear Requirement</t>
   </si>
 </sst>
 </file>
@@ -1048,25 +1042,25 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="118.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="64.5" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="5"/>
+    <col min="6" max="6" width="118.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>_xlfn.CONCAT("CA-RS", IF($B2="Functional Requirements","-FR-","-NFR-"),ROW() - 1)</f>
         <v>CA-RS-FR-1</v>
@@ -1104,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>2</v>
@@ -1113,7 +1107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A52" si="0">_xlfn.CONCAT("CA-RS", IF($B3="Functional Requirements","-FR-","-NFR-"),ROW() - 1)</f>
         <v>CA-RS-FR-2</v>
@@ -1128,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>9</v>
@@ -1137,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-3</v>
@@ -1152,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>3</v>
@@ -1161,7 +1155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-4</v>
@@ -1176,58 +1170,58 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CA-RS-FR-5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CA-RS-FR-5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CA-RS-FR-6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CA-RS-FR-6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-7</v>
@@ -1242,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -1251,7 +1245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-8</v>
@@ -1266,14 +1260,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-9</v>
@@ -1288,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>10</v>
@@ -1297,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-10</v>
@@ -1312,14 +1306,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-11</v>
@@ -1334,14 +1328,14 @@
         <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-12</v>
@@ -1356,14 +1350,14 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-13</v>
@@ -1378,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>5</v>
@@ -1387,7 +1381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-14</v>
@@ -1402,14 +1396,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-15</v>
@@ -1424,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>6</v>
@@ -1433,7 +1427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-16</v>
@@ -1448,14 +1442,14 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-17</v>
@@ -1470,14 +1464,14 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-18</v>
@@ -1492,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>7</v>
@@ -1501,7 +1495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-19</v>
@@ -1516,14 +1510,14 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-20</v>
@@ -1538,14 +1532,14 @@
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-21</v>
@@ -1560,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>16</v>
@@ -1569,7 +1563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-22</v>
@@ -1584,14 +1578,14 @@
         <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-23</v>
@@ -1606,14 +1600,14 @@
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-24</v>
@@ -1628,14 +1622,14 @@
         <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-25</v>
@@ -1650,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>8</v>
@@ -1659,7 +1653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-FR-26</v>
@@ -1674,36 +1668,36 @@
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CA-RS-FR-27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CA-RS-FR-27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-28</v>
@@ -1718,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>22</v>
@@ -1727,7 +1721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-29</v>
@@ -1742,14 +1736,14 @@
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-30</v>
@@ -1764,14 +1758,14 @@
         <v>2</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-31</v>
@@ -1786,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>23</v>
@@ -1795,7 +1789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-32</v>
@@ -1810,14 +1804,14 @@
         <v>2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-33</v>
@@ -1832,14 +1826,14 @@
         <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-34</v>
@@ -1854,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>24</v>
@@ -1863,7 +1857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-35</v>
@@ -1878,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>37</v>
@@ -1887,7 +1881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-36</v>
@@ -1902,14 +1896,14 @@
         <v>3</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-37</v>
@@ -1924,14 +1918,14 @@
         <v>3</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-38</v>
@@ -1946,14 +1940,14 @@
         <v>3</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-39</v>
@@ -1968,14 +1962,14 @@
         <v>2</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-40</v>
@@ -1990,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>25</v>
@@ -1999,7 +1993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-41</v>
@@ -2014,14 +2008,14 @@
         <v>2</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-42</v>
@@ -2036,14 +2030,14 @@
         <v>2</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-43</v>
@@ -2058,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>26</v>
@@ -2067,7 +2061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-44</v>
@@ -2082,14 +2076,14 @@
         <v>2</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-45</v>
@@ -2104,14 +2098,14 @@
         <v>2</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-46</v>
@@ -2126,14 +2120,14 @@
         <v>2</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>34</v>
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-47</v>
@@ -2148,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>27</v>
@@ -2157,7 +2151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-48</v>
@@ -2172,14 +2166,14 @@
         <v>2</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-49</v>
@@ -2194,14 +2188,14 @@
         <v>2</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-50</v>
@@ -2216,14 +2210,14 @@
         <v>2</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>30</v>
       </c>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>CA-RS-NFR-51</v>
@@ -2238,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>31</v>
@@ -2258,7 +2252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
